--- a/trend_results/Rivers/RangitikeiatMcKelvies_a61eedb037.xlsx
+++ b/trend_results/Rivers/RangitikeiatMcKelvies_a61eedb037.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0042567144423719</v>
+        <v>0.995743285557628</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0978727429891849</v>
+        <v>0.902127257010815</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.35320379324916e-05</v>
+        <v>0.999986467962067</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0046118707510413</v>
+        <v>0.995388129248959</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.768783636774762</v>
+        <v>0.0143247632418957</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.37</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0500891884081902</v>
+        <v>0.255858607084405</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.101599465873003</v>
+        <v>0.0499718421809234</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0610301422639647</v>
+        <v>0.660879333782567</v>
       </c>
       <c r="N30" t="n">
-        <v>13.5376184887001</v>
+        <v>2.55858607084405</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.59675202974633</v>
+        <v>0.05011097334356</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0186915887850467</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.588785046728972</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>95.70999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="K31" t="n">
-        <v>1.29722343878421</v>
+        <v>-0.0110146366110218</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.58524678680097</v>
+        <v>-0.0202389091652928</v>
       </c>
       <c r="M31" t="n">
-        <v>3.13233152899036</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.35536875852493</v>
+        <v>-2.75365915275545</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.768783636774762</v>
+        <v>0.996905631048453</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.820809248554913</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.04</v>
+        <v>10.45</v>
       </c>
       <c r="K32" t="n">
-        <v>0.308014330468719</v>
+        <v>0.0407923639025899</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.658798874868739</v>
+        <v>0.0158388141439849</v>
       </c>
       <c r="M32" t="n">
-        <v>0.859951976243309</v>
+        <v>0.06785261621787481</v>
       </c>
       <c r="N32" t="n">
-        <v>6.11139544580791</v>
+        <v>0.390357549307081</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3374,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5</v>
+        <v>0.093833505011506</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="H33" t="n">
+        <v>0.191011235955056</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.3695</v>
+        <v>0.012</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0036188076528869</v>
+        <v>0.0001427596965127</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0232942019357105</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0145684586253593</v>
+        <v>0.0003347109171224</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.979379608359112</v>
+        <v>1.18966413760654</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.571554788793691</v>
+        <v>0.996699982854049</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0340909090909091</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>0.585227272727273</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>95.355</v>
+        <v>73.5</v>
       </c>
       <c r="K34" t="n">
-        <v>0.205427446569179</v>
+        <v>-3.54013906447535</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.632340986503416</v>
+        <v>-7.06438306650771</v>
       </c>
       <c r="M34" t="n">
-        <v>1.00929173275085</v>
+        <v>-1.00102774922919</v>
       </c>
       <c r="N34" t="n">
-        <v>0.215434373204529</v>
+        <v>-4.81651573398007</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.762862824616335</v>
+        <v>0.275223708703236</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.734104046242775</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.369942196531792</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J35" t="n">
-        <v>5.155</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>0.128540836653387</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.132158976566047</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.259233076220749</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2.49351768483776</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1253 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.959084473434641</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.108974358974359</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.962171310426142</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.320754716981132</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.591194968553459</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0034008821602604</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.999999769957154</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.554285714285714</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0307838179519596</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0211315086782376</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0411912794782974</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.385279323553937</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.958046745216199</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.112359550561798</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.612359550561798</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0004721681359825</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0011062995670496</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.908015646120235</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.965470499502136</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0030033919527911</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0061965118081277</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.3969264896703</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.636464929542341</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.48314606741573</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-8.334302418211071e-05</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0007784369781789</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0003336057632807</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.277810080607036</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9651569209766629</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0056179775280898</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.943820224719101</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7.155</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.164177802534544</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.373869293828404</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0174257283622174</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-2.29458843514388</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0500891884081902</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.101599465873003</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0610301422639647</v>
+      </c>
+      <c r="N43" t="n">
+        <v>13.5376184887001</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>95.70999999999999</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.29722343878421</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-3.58524678680097</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.13233152899036</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.35536875852493</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.308014330468719</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.658798874868739</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.859951976243309</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6.11139544580791</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3695</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0036188076528869</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0232942019357105</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0145684586253593</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.979379608359112</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.571554788793691</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>95.355</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.205427446569179</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.632340986503416</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.00929173275085</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.215434373204529</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.762862824616335</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.155</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.128540836653387</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.132158976566047</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.259233076220749</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.49351768483776</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rangitikei at McKelvies</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.762666029282606</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>95</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.429558115543327</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.473055750202577</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.08676091286811</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.452166437414029</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1795267.373</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5538804.99</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/RangitikeiatMcKelvies_a61eedb037.xlsx
+++ b/trend_results/Rivers/RangitikeiatMcKelvies_a61eedb037.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.773116351315404</v>
+        <v>0.93938450110892</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>12.75</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.03444580072444</v>
+        <v>-3.1149025974026</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.59701396918915</v>
+        <v>-9.27690344551227</v>
       </c>
       <c r="M2" t="n">
-        <v>1.40555494833088</v>
+        <v>0.0695092861441865</v>
       </c>
       <c r="N2" t="n">
-        <v>-8.113300397838749</v>
+        <v>-25.9575216450216</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.970637894169582</v>
+        <v>0.440405522701418</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.828571428571429</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0521785714285714</v>
+        <v>-0.0025771123693379</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0048096195555547</v>
+        <v>-0.0401373626373626</v>
       </c>
       <c r="M3" t="n">
-        <v>0.111093324421207</v>
+        <v>0.0341622924846848</v>
       </c>
       <c r="N3" t="n">
-        <v>18.6352040816327</v>
+        <v>-1.03084494773519</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.995743285557628</v>
+        <v>0.560085419994085</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.946428571428571</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.665</v>
+        <v>10.71</v>
       </c>
       <c r="K4" t="n">
-        <v>0.170583791208791</v>
+        <v>0.0108948909100609</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0720870771773774</v>
+        <v>-0.0963800257189214</v>
       </c>
       <c r="M4" t="n">
-        <v>0.292975955921029</v>
+        <v>0.127482796164838</v>
       </c>
       <c r="N4" t="n">
-        <v>1.59947296023245</v>
+        <v>0.101726339029513</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6266329557856321</v>
+        <v>0.0776909306943025</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.344827586206897</v>
+        <v>0.362068965517241</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0125</v>
+        <v>0.013</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0007787846481876</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0013271828758163</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0008342133905541</v>
+        <v>0.0016666389929039</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5.99065113990487</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.935439367577287</v>
+        <v>0.0588585488191854</v>
       </c>
       <c r="G6" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.620689655172414</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>46</v>
+        <v>49.5</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.22472527472527</v>
+        <v>8.12617096018735</v>
       </c>
       <c r="L6" t="n">
-        <v>-16.4774436090226</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>18.262093582922</v>
       </c>
       <c r="N6" t="n">
-        <v>-15.7059245102723</v>
+        <v>16.4165069902775</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,19 +1028,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.309399875633059</v>
+        <v>0.679210405278763</v>
       </c>
       <c r="G7" t="n">
-        <v>0.62962962962963</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="H7" t="n">
-        <v>0.462962962962963</v>
+        <v>0.436363636363636</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0054204813458705</v>
+        <v>0.005</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.709547992077698</v>
+        <v>0.98220939832193</v>
       </c>
       <c r="G8" t="n">
-        <v>0.46551724137931</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="H8" t="n">
-        <v>0.155172413793103</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0005324344023323</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.939155050743223</v>
+        <v>0.080138937657929</v>
       </c>
       <c r="G9" t="n">
-        <v>0.293103448275862</v>
+        <v>0.275862068965517</v>
       </c>
       <c r="H9" t="n">
-        <v>0.655172413793103</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0038366596638655</v>
+        <v>0.0022813288054075</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0214651047678033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.0059461759121074</v>
       </c>
       <c r="N9" t="n">
-        <v>-10.3693504428799</v>
+        <v>5.70332201351879</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.902127257010815</v>
+        <v>0.029995685787391</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.803571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.115</v>
+        <v>8.135</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0407334620824725</v>
+        <v>-0.0565102273963656</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.008787038067852001</v>
+        <v>-0.101882350952364</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0956049854521229</v>
+        <v>-0.0057364500145701</v>
       </c>
       <c r="N10" t="n">
-        <v>0.501952705883826</v>
+        <v>-0.694655530379417</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8564262987129591</v>
+        <v>0.0567181904180913</v>
       </c>
       <c r="G11" t="n">
-        <v>0.103448275862069</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="H11" t="n">
-        <v>0.741379310344828</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.043</v>
+        <v>0.0445</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0025085851648351</v>
+        <v>0.0039758708272859</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0132057427928492</v>
+        <v>-0.0005164337904651</v>
       </c>
       <c r="M11" t="n">
-        <v>6.44300548692211e-05</v>
+        <v>0.0076424765369857</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.83391898798876</v>
+        <v>8.93454118491219</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.956764902295735</v>
+        <v>0.184880240211656</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.637931034482759</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.5</v>
+        <v>0.185</v>
       </c>
       <c r="K12" t="n">
-        <v>-2.00686813186813</v>
+        <v>0.0066469517743403</v>
       </c>
       <c r="L12" t="n">
-        <v>-4.93857813839508</v>
+        <v>-0.0050227240744146</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0166180914836668</v>
       </c>
       <c r="N12" t="n">
-        <v>-12.9475363346331</v>
+        <v>3.59294690504882</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.977914327545779</v>
+        <v>0.0597799427924081</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.603448275862069</v>
+        <v>0.706896551724138</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.185</v>
+        <v>0.033</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.018625061554012</v>
+        <v>0.0042840789368398</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0401373626373626</v>
+        <v>-3.16209805351268e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0049562353691943</v>
+        <v>0.007837438300935799</v>
       </c>
       <c r="N13" t="n">
-        <v>-10.0676008400065</v>
+        <v>12.9820573843632</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.909540284209246</v>
+        <v>0.558767158356863</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H14" t="n">
-        <v>0.637931034482759</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03</v>
+        <v>7.2</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0028214174194267</v>
+        <v>-0.09951436370726641</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0047043066637061</v>
+        <v>-1.01619061394259</v>
       </c>
       <c r="M14" t="n">
-        <v>1.60563787531233e-05</v>
+        <v>0.892057014245185</v>
       </c>
       <c r="N14" t="n">
-        <v>-9.40472473142262</v>
+        <v>-1.3821439403787</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.998446180432135</v>
+        <v>0.897279930680132</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.982758620689655</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.445</v>
+        <v>12</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.2843956043956</v>
+        <v>-0.583466453674121</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.03649097229171</v>
+        <v>-1.48245202835483</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.507040937640539</v>
+        <v>0.0411457282513086</v>
       </c>
       <c r="N15" t="n">
-        <v>-19.9285586407386</v>
+        <v>-4.86222044728435</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.874416946470236</v>
+        <v>0.103424313678459</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.847058823529412</v>
+        <v>0.681818181818182</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>13</v>
+        <v>0.27</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.6009070670708599</v>
+        <v>-0.0174575146043548</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.63999825274736</v>
+        <v>-0.0423120796240829</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0487959305090714</v>
+        <v>0.0025459383757026</v>
       </c>
       <c r="N16" t="n">
-        <v>-4.62236205439123</v>
+        <v>-6.46574614976102</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.089695220961571</v>
+        <v>0.999923623535823</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0151515151515152</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.681818181818182</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.37</v>
+        <v>10.485</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0180255462407652</v>
+        <v>0.072201796217173</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0501717032967033</v>
+        <v>0.0400280756212985</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0023013899606153</v>
+        <v>0.111954022988506</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.87176925426087</v>
+        <v>0.688619897159495</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.999986467962067</v>
+        <v>0.764309773878257</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.836206896551724</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.56</v>
+        <v>0.013</v>
       </c>
       <c r="K18" t="n">
-        <v>0.09502167959835681</v>
+        <v>-0.0001181917091973</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06278410766616491</v>
+        <v>-0.0004415020698652</v>
       </c>
       <c r="M18" t="n">
-        <v>0.134255031910791</v>
+        <v>0.0001667047010497</v>
       </c>
       <c r="N18" t="n">
-        <v>0.899826511348076</v>
+        <v>-0.909166993825918</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.862915176991399</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0256410256410256</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.581196581196581</v>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.772467839271215</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.23728813559322</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>0.012</v>
+        <v>69</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0001179236776661</v>
+        <v>-2.34803571428571</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0003998357963875</v>
+        <v>-7.21592051074587</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000142887533952</v>
+        <v>1.11806678092428</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.982697313884324</v>
+        <v>-3.40295031055901</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.851828983752097</v>
+        <v>0.12782491779925</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0256410256410256</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="H20" t="n">
-        <v>0.555555555555556</v>
+        <v>0.37719298245614</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>58</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.3062349900804</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-5.34436169902907</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.639622877763367</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.25212929324207</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,19 +2298,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0265664295080897</v>
+        <v>0.9395933399880551</v>
       </c>
       <c r="G21" t="n">
-        <v>0.754385964912281</v>
+        <v>0.415254237288136</v>
       </c>
       <c r="H21" t="n">
-        <v>0.359649122807018</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,19 +2389,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.985067904714322</v>
+        <v>0.332396112902368</v>
       </c>
       <c r="G22" t="n">
-        <v>0.364406779661017</v>
+        <v>0.313559322033898</v>
       </c>
       <c r="H22" t="n">
-        <v>0.135593220338983</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003</v>
+        <v>0.04525</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.000918174786096</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,35 +2476,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.382493729741457</v>
+        <v>0.85858042355394</v>
       </c>
       <c r="G23" t="n">
-        <v>0.364406779661017</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.576271186440678</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0323</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.0105022295807443</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0054661950141256</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.0268792047130526</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.130058570659372</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.995388129248959</v>
+        <v>0.0459007999482646</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="H24" t="n">
-        <v>0.672413793103448</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>8.055</v>
+        <v>0.0554</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02655964204747</v>
+        <v>0.0012262060308112</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0103528911564626</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0438813768505738</v>
+        <v>0.0025636853619505</v>
       </c>
       <c r="N24" t="n">
-        <v>0.329728641185227</v>
+        <v>2.21336828666299</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0561657740566203</v>
+        <v>0.228754264897735</v>
       </c>
       <c r="G25" t="n">
-        <v>0.127118644067797</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.601694915254237</v>
+        <v>0.584745762711864</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04</v>
+        <v>0.205</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0008536636664999</v>
+        <v>0.0025037169668642</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-0.0028651311356053</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0015017234845612</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="N25" t="n">
-        <v>2.13415916624993</v>
+        <v>1.22132534968985</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.436606071470877</v>
+        <v>0.19841273697731</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.474576271186441</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>15.5</v>
+        <v>0.0325</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0005355682169308</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.552031654794094</v>
+        <v>-0.0005001901873588</v>
       </c>
       <c r="M26" t="n">
-        <v>0.499254636811709</v>
+        <v>0.0016714140135688</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.64790220594114</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.297948725219761</v>
+        <v>0.336269634092167</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H27" t="n">
-        <v>0.627118644067797</v>
+        <v>0.957627118644068</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.185</v>
+        <v>7.46</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0014637496605773</v>
+        <v>0.105808713121169</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0028724603007965</v>
+        <v>-0.191093436715837</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0049728277349184</v>
+        <v>0.294310054740887</v>
       </c>
       <c r="N27" t="n">
-        <v>0.791216032744511</v>
+        <v>1.41834736087358</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.335692662482037</v>
+        <v>0.0301578197399312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.508474576271186</v>
+        <v>0.785123966942149</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0295</v>
+        <v>9.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001427596965127</v>
+        <v>0.177427134646962</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0006647670538074</v>
+        <v>0.0309314945725031</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0009973554820323</v>
+        <v>0.456114340802948</v>
       </c>
       <c r="N28" t="n">
-        <v>0.483931174619608</v>
+        <v>1.86765404891539</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.375622108893759</v>
+        <v>0.018735735929882</v>
       </c>
       <c r="G29" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.0186915887850467</v>
       </c>
       <c r="H29" t="n">
-        <v>0.957627118644068</v>
+        <v>0.560747663551402</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>6.06</v>
+        <v>0.37</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06401206784083489</v>
+        <v>-0.0119950738916256</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.191093436715837</v>
+        <v>-0.0238466230579866</v>
       </c>
       <c r="M29" t="n">
-        <v>0.191153831487357</v>
+        <v>-0.0014575504238428</v>
       </c>
       <c r="N29" t="n">
-        <v>1.05630474984876</v>
+        <v>-3.24191186260152</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0143247632418957</v>
+        <v>0.9985537040204649</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.796610169491525</v>
+        <v>0.826589595375723</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>10.45</v>
       </c>
       <c r="K30" t="n">
-        <v>0.255858607084405</v>
+        <v>0.0446272647683966</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0499718421809234</v>
+        <v>0.0183236231414718</v>
       </c>
       <c r="M30" t="n">
-        <v>0.660879333782567</v>
+        <v>0.0680531096741573</v>
       </c>
       <c r="N30" t="n">
-        <v>2.55858607084405</v>
+        <v>0.427055165247814</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.05011097334356</v>
+        <v>0.269301510357479</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0186915887850467</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="H31" t="n">
-        <v>0.588785046728972</v>
+        <v>0.191011235955056</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4</v>
+        <v>0.013</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0110146366110218</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0202389091652928</v>
+        <v>-9.096971324421531e-05</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.0002509665215703</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.75365915275545</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.996905631048453</v>
+        <v>0.993152022479748</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0340909090909091</v>
       </c>
       <c r="H32" t="n">
-        <v>0.820809248554913</v>
+        <v>0.5965909090909089</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>10.45</v>
+        <v>74.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0407923639025899</v>
+        <v>-3.75385405960946</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0158388141439849</v>
+        <v>-8.06046162010643</v>
       </c>
       <c r="M32" t="n">
-        <v>0.06785261621787481</v>
+        <v>-0.804179062479617</v>
       </c>
       <c r="N32" t="n">
-        <v>0.390357549307081</v>
+        <v>-5.03873028135497</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.093833505011506</v>
+        <v>0.598443487496353</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0898876404494382</v>
+        <v>0.716763005780347</v>
       </c>
       <c r="H33" t="n">
-        <v>0.191011235955056</v>
+        <v>0.375722543352601</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J33" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001427596965127</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0003347109171224</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.18966413760654</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3473,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.996699982854049</v>
+        <v>0.995117933677452</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0340909090909091</v>
+        <v>0.422619047619048</v>
       </c>
       <c r="H34" t="n">
-        <v>0.585227272727273</v>
+        <v>0.101190476190476</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>73.5</v>
+        <v>0.0025</v>
       </c>
       <c r="K34" t="n">
-        <v>-3.54013906447535</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-7.06438306650771</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.00102774922919</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-4.81651573398007</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3568,25 +3568,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.275223708703236</v>
+        <v>0.777857955519926</v>
       </c>
       <c r="G35" t="n">
-        <v>0.734104046242775</v>
+        <v>0.30952380952381</v>
       </c>
       <c r="H35" t="n">
-        <v>0.369942196531792</v>
+        <v>0.613095238095238</v>
       </c>
       <c r="I35" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.0579</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0011593257913485</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,46 +3644,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.959084473434641</v>
+        <v>0.999988802099596</v>
       </c>
       <c r="G36" t="n">
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.108974358974359</v>
+        <v>0.548571428571429</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0025</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0252979460234058</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.0158116883116883</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0356506714260318</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.316224325292572</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.962171310426142</v>
+        <v>0.8383896620640811</v>
       </c>
       <c r="G37" t="n">
-        <v>0.320754716981132</v>
+        <v>0.106741573033708</v>
       </c>
       <c r="H37" t="n">
-        <v>0.591194968553459</v>
+        <v>0.747191011235955</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>0.053</v>
+        <v>0.067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-0.0002389980856278</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0034008821602604</v>
+        <v>-0.0009292627160495</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.0002177831246961</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-0.356713560638621</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999999769957154</v>
+        <v>0.9512456969322201</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.554285714285714</v>
+        <v>0.567415730337079</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.99</v>
+        <v>0.235</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0307838179519596</v>
+        <v>-0.0030488958157227</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0211315086782376</v>
+        <v>-0.007905310685871501</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0411912794782974</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0.385279323553937</v>
+        <v>-1.29740247477563</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3924,35 +3924,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.958046745216199</v>
+        <v>0.546296193762046</v>
       </c>
       <c r="G39" t="n">
-        <v>0.112359550561798</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.612359550561798</v>
+        <v>0.51123595505618</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.052</v>
+        <v>0.032</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0004721681359825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0011062995670496</v>
+        <v>-0.0007390422607455</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.0005035417566823</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.908015646120235</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.965470499502136</v>
+        <v>0.943147842823962</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H40" t="n">
-        <v>0.550561797752809</v>
+        <v>0.949438202247191</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.215</v>
+        <v>7.765</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0030033919527911</v>
+        <v>-0.152704853273871</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0061965118081277</v>
+        <v>-0.350284313098614</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.0005200553075776</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.3969264896703</v>
+        <v>-1.96657892174979</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.636464929542341</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.48314606741573</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.03</v>
+        <v>0.306</v>
       </c>
       <c r="K41" t="n">
-        <v>-8.334302418211071e-05</v>
+        <v>0.0500891884081902</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0007784369781789</v>
+        <v>-0.0990146970404497</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0003336057632807</v>
+        <v>0.0610301422639647</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.277810080607036</v>
+        <v>16.36901581967</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4172,11 +4172,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,46 +4182,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.9651569209766629</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.0056179775280898</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.943820224719101</v>
-      </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.155</v>
+        <v>95</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.164177802534544</v>
+        <v>-1.31462214530042</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.373869293828404</v>
+        <v>-8.545752320255611</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0174257283622174</v>
+        <v>3.13233152899036</v>
       </c>
       <c r="N42" t="n">
-        <v>-2.29458843514388</v>
+        <v>-1.38381278452676</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4230,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4263,11 +4259,7 @@
           <t>Rang_4a</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.768783636774762</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.37</v>
+        <v>4.469</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0500891884081902</v>
+        <v>0.151188247698353</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.101599465873003</v>
+        <v>-2.05345631781026</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0610301422639647</v>
+        <v>0.859951976243309</v>
       </c>
       <c r="N43" t="n">
-        <v>13.5376184887001</v>
+        <v>3.38304425371118</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.59675202974633</v>
+        <v>0.295752518497458</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.70999999999999</v>
+        <v>0.3615</v>
       </c>
       <c r="K44" t="n">
-        <v>1.29722343878421</v>
+        <v>-0.0073834491471888</v>
       </c>
       <c r="L44" t="n">
-        <v>-3.58524678680097</v>
+        <v>-0.028692689911866</v>
       </c>
       <c r="M44" t="n">
-        <v>3.13233152899036</v>
+        <v>0.0108996748755324</v>
       </c>
       <c r="N44" t="n">
-        <v>1.35536875852493</v>
+        <v>-2.04244789687106</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,31 +4458,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.768783636774762</v>
+        <v>0.428445211206309</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.04</v>
+        <v>94.5</v>
       </c>
       <c r="K45" t="n">
-        <v>0.308014330468719</v>
+        <v>-0.1400125</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.658798874868739</v>
+        <v>-1.20614536627855</v>
       </c>
       <c r="M45" t="n">
-        <v>0.859951976243309</v>
+        <v>1.00929173275085</v>
       </c>
       <c r="N45" t="n">
-        <v>6.11139544580791</v>
+        <v>-0.148161375661375</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,7 +4545,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.5</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4565,19 +4557,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3695</v>
+        <v>4.7545</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0036188076528869</v>
+        <v>0.0913761324041812</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0232942019357105</v>
+        <v>-0.335494525349052</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0145684586253593</v>
+        <v>0.259233076220749</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.979379608359112</v>
+        <v>1.92188731526304</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4625,11 +4617,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -4640,31 +4632,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.571554788793691</v>
+        <v>0.014269531785181</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>95.355</v>
+        <v>0.3845</v>
       </c>
       <c r="K47" t="n">
-        <v>0.205427446569179</v>
+        <v>-0.0144562875751503</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.632340986503416</v>
+        <v>-0.0232232947421115</v>
       </c>
       <c r="M47" t="n">
-        <v>1.00929173275085</v>
+        <v>-0.00512728150784</v>
       </c>
       <c r="N47" t="n">
-        <v>0.215434373204529</v>
+        <v>-3.75976269834858</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4673,7 +4665,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4712,11 +4704,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4727,31 +4719,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.762862824616335</v>
+        <v>0.559227085565669</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.155</v>
+        <v>95</v>
       </c>
       <c r="K48" t="n">
-        <v>0.128540836653387</v>
+        <v>0.0864621824480372</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.132158976566047</v>
+        <v>-0.529483589086274</v>
       </c>
       <c r="M48" t="n">
-        <v>0.259233076220749</v>
+        <v>0.864724783236862</v>
       </c>
       <c r="N48" t="n">
-        <v>2.49351768483776</v>
+        <v>0.09101282362951291</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4760,7 +4752,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4799,7 +4791,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -4814,31 +4806,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.762666029282606</v>
+        <v>0.190537240804647</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.785714285714286</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>95</v>
+        <v>5.155</v>
       </c>
       <c r="K49" t="n">
-        <v>0.429558115543327</v>
+        <v>-0.0816201117318435</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.473055750202577</v>
+        <v>-0.216585801009501</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08676091286811</v>
+        <v>0.0608433583726239</v>
       </c>
       <c r="N49" t="n">
-        <v>0.452166437414029</v>
+        <v>-1.5833193352443</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4839,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">

--- a/trend_results/Rivers/RangitikeiatMcKelvies_a61eedb037.xlsx
+++ b/trend_results/Rivers/RangitikeiatMcKelvies_a61eedb037.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -142,43 +142,52 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
     <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Virtually certain improving</t>
@@ -569,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,13 +672,13 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.93938450110892</v>
+        <v>0.96553508066187</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9696969696969699</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -678,22 +687,22 @@
         <v>12</v>
       </c>
       <c r="K2">
-        <v>-3.1149025974026</v>
+        <v>-4.95213293650794</v>
       </c>
       <c r="L2">
-        <v>-9.27690344551227</v>
+        <v>-11.6250845890697</v>
       </c>
       <c r="M2">
-        <v>0.0695092861441865</v>
+        <v>-0.602614630023886</v>
       </c>
       <c r="N2">
-        <v>-25.9575216450216</v>
+        <v>-41.2677744708995</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2">
         <v>1795267.373</v>
@@ -702,19 +711,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -734,37 +743,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.440405522701418</v>
+        <v>0.026755523706142</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.777777777777778</v>
+        <v>0.875</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.25</v>
+        <v>0.205</v>
       </c>
       <c r="K3">
-        <v>-0.0025771123693379</v>
+        <v>-0.0402568190737834</v>
       </c>
       <c r="L3">
-        <v>-0.0401373626373626</v>
+        <v>-0.0990787351087408</v>
       </c>
       <c r="M3">
-        <v>0.0341622924846848</v>
+        <v>-0.0073939123254179</v>
       </c>
       <c r="N3">
-        <v>-1.03084494773519</v>
+        <v>-19.6374727189187</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q3">
         <v>1795267.373</v>
@@ -773,19 +782,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -805,37 +814,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.560085419994085</v>
+        <v>0.207429060073121</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.912280701754386</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.71</v>
+        <v>10.76</v>
       </c>
       <c r="K4">
-        <v>0.0108948909100609</v>
+        <v>-0.0602598573409943</v>
       </c>
       <c r="L4">
-        <v>-0.0963800257189214</v>
+        <v>-0.210721153846153</v>
       </c>
       <c r="M4">
-        <v>0.127482796164838</v>
+        <v>0.025454598817507</v>
       </c>
       <c r="N4">
-        <v>0.101726339029513</v>
+        <v>-0.560035848893999</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>1795267.373</v>
@@ -844,19 +853,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -876,37 +885,37 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0776909306943025</v>
+        <v>0.0033569879645437</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.362068965517241</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K5">
-        <v>0.0007787846481876</v>
+        <v>0.0014026497695852</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0005288318194033</v>
       </c>
       <c r="M5">
-        <v>0.0016666389929039</v>
+        <v>0.0023990147783251</v>
       </c>
       <c r="N5">
-        <v>5.99065113990487</v>
+        <v>11.6887480798771</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q5">
         <v>1795267.373</v>
@@ -915,19 +924,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -947,37 +956,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.0588585488191854</v>
+        <v>0.0047925487222309</v>
       </c>
       <c r="G6">
         <v>0.0172413793103448</v>
       </c>
       <c r="H6">
-        <v>0.655172413793103</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>49.5</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>8.12617096018735</v>
+        <v>12.2773109243697</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.14652836831098</v>
       </c>
       <c r="M6">
-        <v>18.262093582922</v>
+        <v>28.3417284672361</v>
       </c>
       <c r="N6">
-        <v>16.4165069902775</v>
+        <v>21.9237695078031</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1795267.373</v>
@@ -986,19 +995,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1018,16 +1027,16 @@
         <v>41</v>
       </c>
       <c r="F7">
-        <v>0.679210405278763</v>
+        <v>0.891105674832208</v>
       </c>
       <c r="G7">
-        <v>0.636363636363636</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="H7">
-        <v>0.436363636363636</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.005</v>
@@ -1045,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1795267.373</v>
@@ -1057,19 +1066,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1089,25 +1098,25 @@
         <v>41</v>
       </c>
       <c r="F8">
-        <v>0.98220939832193</v>
+        <v>0.954314792291324</v>
       </c>
       <c r="G8">
-        <v>0.448275862068966</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="H8">
-        <v>0.120689655172414</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0005324344023323</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1116,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1795267.373</v>
@@ -1128,19 +1137,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1160,37 +1169,37 @@
         <v>41</v>
       </c>
       <c r="F9">
-        <v>0.080138937657929</v>
+        <v>0.157214952050604</v>
       </c>
       <c r="G9">
-        <v>0.275862068965517</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="H9">
-        <v>0.689655172413793</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="K9">
-        <v>0.0022813288054075</v>
+        <v>0.0017337258581898</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.0059461759121074</v>
+        <v>0.0103398808404462</v>
       </c>
       <c r="N9">
-        <v>5.70332201351879</v>
+        <v>4.03192060044148</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1795267.373</v>
@@ -1199,19 +1208,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1231,37 +1240,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.029995685787391</v>
+        <v>0.00054845321562</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.75</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.135</v>
+        <v>8.07</v>
       </c>
       <c r="K10">
-        <v>-0.0565102273963656</v>
+        <v>-0.095788134484563</v>
       </c>
       <c r="L10">
-        <v>-0.101882350952364</v>
+        <v>-0.163050415834322</v>
       </c>
       <c r="M10">
-        <v>-0.0057364500145701</v>
+        <v>-0.0485980408309523</v>
       </c>
       <c r="N10">
-        <v>-0.694655530379417</v>
+        <v>-1.18696573091156</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1795267.373</v>
@@ -1270,16 +1279,16 @@
         <v>5538804.99</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,40 +1305,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0567181904180913</v>
+        <v>0.09045971579075381</v>
       </c>
       <c r="G11">
-        <v>0.0689655172413793</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.844827586206897</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0445</v>
+        <v>0.0455</v>
       </c>
       <c r="K11">
-        <v>0.0039758708272859</v>
+        <v>0.0037461538461538</v>
       </c>
       <c r="L11">
-        <v>-0.0005164337904651</v>
+        <v>-0.0005290515330164</v>
       </c>
       <c r="M11">
-        <v>0.0076424765369857</v>
+        <v>0.0110593890812885</v>
       </c>
       <c r="N11">
-        <v>8.93454118491219</v>
+        <v>8.23330515638208</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q11">
         <v>1795267.373</v>
@@ -1338,19 +1347,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1370,37 +1379,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.184880240211656</v>
+        <v>0.326910243161775</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.603448275862069</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="K12">
-        <v>0.0066469517743403</v>
+        <v>0.0033234758871701</v>
       </c>
       <c r="L12">
-        <v>-0.0050227240744146</v>
+        <v>-0.0066923373119326</v>
       </c>
       <c r="M12">
-        <v>0.0166180914836668</v>
+        <v>0.0174834287363845</v>
       </c>
       <c r="N12">
-        <v>3.59294690504882</v>
+        <v>1.84637549287231</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>1795267.373</v>
@@ -1409,19 +1418,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,43 +1444,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0597799427924081</v>
+        <v>0.0193397767514088</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.706896551724138</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="K13">
-        <v>0.0042840789368398</v>
+        <v>0.0046175726927939</v>
       </c>
       <c r="L13">
-        <v>-3.16209805351268E-05</v>
+        <v>0.0009767585807005999</v>
       </c>
       <c r="M13">
-        <v>0.007837438300935799</v>
+        <v>0.009939166190186</v>
       </c>
       <c r="N13">
-        <v>12.9820573843632</v>
+        <v>14.429914664981</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1795267.373</v>
@@ -1480,19 +1489,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,43 +1515,43 @@
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.558767158356863</v>
+        <v>0.0887752483759795</v>
       </c>
       <c r="G14">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0.982758620689655</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7.2</v>
+        <v>6.445</v>
       </c>
       <c r="K14">
-        <v>-0.09951436370726641</v>
+        <v>0.581418367346939</v>
       </c>
       <c r="L14">
-        <v>-1.01619061394259</v>
+        <v>-0.147482783094481</v>
       </c>
       <c r="M14">
-        <v>0.892057014245185</v>
+        <v>2.59052512570498</v>
       </c>
       <c r="N14">
-        <v>-1.3821439403787</v>
+        <v>9.02123145612007</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q14">
         <v>1795267.373</v>
@@ -1551,19 +1560,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,43 +1586,43 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.897279930680132</v>
+        <v>0.422350037403835</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.842105263157895</v>
+        <v>0.867647058823529</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="K15">
-        <v>-0.583466453674121</v>
+        <v>0.0605210837358975</v>
       </c>
       <c r="L15">
-        <v>-1.48245202835483</v>
+        <v>-0.836592112665147</v>
       </c>
       <c r="M15">
-        <v>0.0411457282513086</v>
+        <v>0.734780419957378</v>
       </c>
       <c r="N15">
-        <v>-4.86222044728435</v>
+        <v>0.52627029335563</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q15">
         <v>1795267.373</v>
@@ -1622,19 +1631,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,43 +1657,43 @@
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.103424313678459</v>
+        <v>0.108825719503901</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.681818181818182</v>
+        <v>0.6716417910447759</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="K16">
-        <v>-0.0174575146043548</v>
+        <v>-0.0159410801963993</v>
       </c>
       <c r="L16">
-        <v>-0.0423120796240829</v>
+        <v>-0.0367085934248776</v>
       </c>
       <c r="M16">
-        <v>0.0025459383757026</v>
+        <v>0.0020848165882926</v>
       </c>
       <c r="N16">
-        <v>-6.46574614976102</v>
+        <v>-6.37643207855974</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q16">
         <v>1795267.373</v>
@@ -1693,19 +1702,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1725,37 +1734,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.999923623535823</v>
+        <v>0.9848187063978761</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.827586206896552</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.485</v>
+        <v>10.51</v>
       </c>
       <c r="K17">
-        <v>0.072201796217173</v>
+        <v>0.0458432999197511</v>
       </c>
       <c r="L17">
-        <v>0.0400280756212985</v>
+        <v>0.009350156057131499</v>
       </c>
       <c r="M17">
-        <v>0.111954022988506</v>
+        <v>0.0823222910102003</v>
       </c>
       <c r="N17">
-        <v>0.688619897159495</v>
+        <v>0.436187439769278</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q17">
         <v>1795267.373</v>
@@ -1764,19 +1773,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1796,13 +1805,13 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.764309773878257</v>
+        <v>0.939420924749223</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.23728813559322</v>
+        <v>0.245762711864407</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1811,22 +1820,22 @@
         <v>0.013</v>
       </c>
       <c r="K18">
-        <v>-0.0001181917091973</v>
+        <v>-0.0002905513197245</v>
       </c>
       <c r="L18">
-        <v>-0.0004415020698652</v>
+        <v>-0.0005897518284367</v>
       </c>
       <c r="M18">
-        <v>0.0001667047010497</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>-0.909166993825918</v>
+        <v>-2.23501015172753</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q18">
         <v>1795267.373</v>
@@ -1835,19 +1844,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1867,37 +1876,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.862915176991399</v>
+        <v>0.7891605311965439</v>
       </c>
       <c r="G19">
         <v>0.0256410256410256</v>
       </c>
       <c r="H19">
-        <v>0.581196581196581</v>
+        <v>0.64957264957265</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>69</v>
+        <v>69.2</v>
       </c>
       <c r="K19">
-        <v>-2.34803571428571</v>
+        <v>-1.84703486311448</v>
       </c>
       <c r="L19">
-        <v>-7.21592051074587</v>
+        <v>-6.20088194264485</v>
       </c>
       <c r="M19">
-        <v>1.11806678092428</v>
+        <v>1.73241985357705</v>
       </c>
       <c r="N19">
-        <v>-3.40295031055901</v>
+        <v>-2.66912552473191</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1795267.373</v>
@@ -1906,19 +1915,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1938,13 +1947,13 @@
         <v>41</v>
       </c>
       <c r="F20">
-        <v>0.12782491779925</v>
+        <v>0.234321992289413</v>
       </c>
       <c r="G20">
-        <v>0.736842105263158</v>
+        <v>0.728070175438597</v>
       </c>
       <c r="H20">
-        <v>0.37719298245614</v>
+        <v>0.385964912280702</v>
       </c>
       <c r="I20">
         <v>17</v>
@@ -1965,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q20">
         <v>1795267.373</v>
@@ -1977,19 +1986,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,13 +2018,13 @@
         <v>41</v>
       </c>
       <c r="F21">
-        <v>0.9395933399880551</v>
+        <v>0.94952844082205</v>
       </c>
       <c r="G21">
-        <v>0.415254237288136</v>
+        <v>0.483050847457627</v>
       </c>
       <c r="H21">
-        <v>0.127118644067797</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2036,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q21">
         <v>1795267.373</v>
@@ -2048,19 +2057,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,25 +2083,25 @@
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22">
-        <v>0.332396112902368</v>
+        <v>0.261029885612313</v>
       </c>
       <c r="G22">
-        <v>0.313559322033898</v>
+        <v>0.330508474576271</v>
       </c>
       <c r="H22">
-        <v>0.644067796610169</v>
+        <v>0.627118644067797</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.04525</v>
+        <v>0.0549</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2101,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.000918174786096</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1795267.373</v>
@@ -2119,19 +2128,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2151,37 +2160,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.85858042355394</v>
+        <v>0.555045686161785</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.646551724137931</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.074999999999999</v>
+        <v>8.065</v>
       </c>
       <c r="K23">
-        <v>0.0105022295807443</v>
+        <v>0.0011358740771189</v>
       </c>
       <c r="L23">
-        <v>-0.0054661950141256</v>
+        <v>-0.0140579981889464</v>
       </c>
       <c r="M23">
-        <v>0.0268792047130526</v>
+        <v>0.0181724458248777</v>
       </c>
       <c r="N23">
-        <v>0.130058570659372</v>
+        <v>0.0140839935166643</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q23">
         <v>1795267.373</v>
@@ -2190,16 +2199,16 @@
         <v>5538804.99</v>
       </c>
       <c r="S23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2219,37 +2228,37 @@
         <v>41</v>
       </c>
       <c r="F24">
-        <v>0.0459007999482646</v>
+        <v>0.312252679504803</v>
       </c>
       <c r="G24">
         <v>0.127118644067797</v>
       </c>
       <c r="H24">
-        <v>0.728813559322034</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.0554</v>
+        <v>0.0607</v>
       </c>
       <c r="K24">
-        <v>0.0012262060308112</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-0.0004961462612238</v>
       </c>
       <c r="M24">
-        <v>0.0025636853619505</v>
+        <v>0.0012362046094863</v>
       </c>
       <c r="N24">
-        <v>2.21336828666299</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q24">
         <v>1795267.373</v>
@@ -2258,19 +2267,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,40 +2296,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F25">
-        <v>0.228754264897735</v>
+        <v>0.531786591759323</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.584745762711864</v>
+        <v>0.5</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="K25">
-        <v>0.0025037169668642</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>-0.0028651311356053</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="M25">
-        <v>0.0050171703296703</v>
+        <v>0.0039546743840767</v>
       </c>
       <c r="N25">
-        <v>1.22132534968985</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q25">
         <v>1795267.373</v>
@@ -2329,19 +2338,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,40 +2367,40 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F26">
-        <v>0.19841273697731</v>
+        <v>0.436797875909721</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.542372881355932</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.0325</v>
+        <v>0.034</v>
       </c>
       <c r="K26">
-        <v>0.0005355682169308</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>-0.0005001901873588</v>
+        <v>-0.0007533700105724</v>
       </c>
       <c r="M26">
-        <v>0.0016714140135688</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N26">
-        <v>1.64790220594114</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q26">
         <v>1795267.373</v>
@@ -2400,19 +2409,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2432,37 +2441,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.336269634092167</v>
+        <v>0.521067594927293</v>
       </c>
       <c r="G27">
         <v>0.008474576271186401</v>
       </c>
       <c r="H27">
-        <v>0.957627118644068</v>
+        <v>0.974576271186441</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>7.46</v>
+        <v>7.56</v>
       </c>
       <c r="K27">
-        <v>0.105808713121169</v>
+        <v>-0.0165162643899989</v>
       </c>
       <c r="L27">
-        <v>-0.191093436715837</v>
+        <v>-0.308048577144685</v>
       </c>
       <c r="M27">
-        <v>0.294310054740887</v>
+        <v>0.251966832965374</v>
       </c>
       <c r="N27">
-        <v>1.41834736087358</v>
+        <v>-0.218469105687816</v>
       </c>
       <c r="O27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q27">
         <v>1795267.373</v>
@@ -2471,19 +2480,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2503,37 +2512,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0301578197399312</v>
+        <v>0.0014263126859339</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.785123966942149</v>
+        <v>0.789915966386555</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="K28">
-        <v>0.177427134646962</v>
+        <v>0.280522737712448</v>
       </c>
       <c r="L28">
-        <v>0.0309314945725031</v>
+        <v>0.116098967631072</v>
       </c>
       <c r="M28">
-        <v>0.456114340802948</v>
+        <v>0.607000195071924</v>
       </c>
       <c r="N28">
-        <v>1.86765404891539</v>
+        <v>3.74030316949931</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q28">
         <v>1795267.373</v>
@@ -2542,19 +2551,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W28" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2574,37 +2583,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.018735735929882</v>
+        <v>0.0073680912848269</v>
       </c>
       <c r="G29">
-        <v>0.0186915887850467</v>
+        <v>0.0194174757281553</v>
       </c>
       <c r="H29">
-        <v>0.560747663551402</v>
+        <v>0.563106796116505</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="K29">
-        <v>-0.0119950738916256</v>
+        <v>-0.0150171436460041</v>
       </c>
       <c r="L29">
-        <v>-0.0238466230579866</v>
+        <v>-0.0284911270691327</v>
       </c>
       <c r="M29">
-        <v>-0.0014575504238428</v>
+        <v>-0.003228031714478</v>
       </c>
       <c r="N29">
-        <v>-3.24191186260152</v>
+        <v>-5.36326558785862</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q29">
         <v>1795267.373</v>
@@ -2613,19 +2622,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2645,13 +2654,13 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.9985537040204649</v>
+        <v>0.999964228124936</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.826589595375723</v>
+        <v>0.8114285714285711</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2660,22 +2669,22 @@
         <v>10.45</v>
       </c>
       <c r="K30">
-        <v>0.0446272647683966</v>
+        <v>0.0535266707531368</v>
       </c>
       <c r="L30">
-        <v>0.0183236231414718</v>
+        <v>0.0283397991784575</v>
       </c>
       <c r="M30">
-        <v>0.0680531096741573</v>
+        <v>0.0702403846153849</v>
       </c>
       <c r="N30">
-        <v>0.427055165247814</v>
+        <v>0.512216945006094</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q30">
         <v>1795267.373</v>
@@ -2684,19 +2693,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2716,37 +2725,37 @@
         <v>41</v>
       </c>
       <c r="F31">
-        <v>0.269301510357479</v>
+        <v>0.218970641319683</v>
       </c>
       <c r="G31">
-        <v>0.0730337078651685</v>
+        <v>0.0561797752808989</v>
       </c>
       <c r="H31">
-        <v>0.191011235955056</v>
+        <v>0.168539325842697</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-9.096971324421531E-05</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0002509665215703</v>
+        <v>0.0002504571428571</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q31">
         <v>1795267.373</v>
@@ -2755,19 +2764,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2787,37 +2796,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.993152022479748</v>
+        <v>0.968480334164491</v>
       </c>
       <c r="G32">
-        <v>0.0340909090909091</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H32">
-        <v>0.5965909090909089</v>
+        <v>0.630681818181818</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>74.5</v>
       </c>
       <c r="K32">
-        <v>-3.75385405960946</v>
+        <v>-2.28638497652582</v>
       </c>
       <c r="L32">
-        <v>-8.06046162010643</v>
+        <v>-6.24690475304566</v>
       </c>
       <c r="M32">
-        <v>-0.804179062479617</v>
+        <v>-0.116316724088059</v>
       </c>
       <c r="N32">
-        <v>-5.03873028135497</v>
+        <v>-3.06897312285345</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q32">
         <v>1795267.373</v>
@@ -2826,19 +2835,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2858,16 +2867,16 @@
         <v>41</v>
       </c>
       <c r="F33">
-        <v>0.598443487496353</v>
+        <v>0.562602567101159</v>
       </c>
       <c r="G33">
-        <v>0.716763005780347</v>
+        <v>0.722543352601156</v>
       </c>
       <c r="H33">
-        <v>0.375722543352601</v>
+        <v>0.364161849710983</v>
       </c>
       <c r="I33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J33">
         <v>0.005</v>
@@ -2885,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q33">
         <v>1795267.373</v>
@@ -2897,19 +2906,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2929,19 +2938,19 @@
         <v>41</v>
       </c>
       <c r="F34">
-        <v>0.995117933677452</v>
+        <v>0.997814038545087</v>
       </c>
       <c r="G34">
-        <v>0.422619047619048</v>
+        <v>0.443820224719101</v>
       </c>
       <c r="H34">
-        <v>0.101190476190476</v>
+        <v>0.0955056179775281</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2956,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q34">
         <v>1795267.373</v>
@@ -2968,19 +2977,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2994,31 +3003,31 @@
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>41</v>
       </c>
       <c r="F35">
-        <v>0.777857955519926</v>
+        <v>0.374917903969425</v>
       </c>
       <c r="G35">
-        <v>0.30952380952381</v>
+        <v>0.325842696629214</v>
       </c>
       <c r="H35">
-        <v>0.613095238095238</v>
+        <v>0.595505617977528</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35">
-        <v>0.0579</v>
+        <v>0.05075</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>-0.0011593257913485</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -3027,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q35">
         <v>1795267.373</v>
@@ -3039,19 +3048,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3071,37 +3080,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.999988802099596</v>
+        <v>0.997941064353052</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.548571428571429</v>
+        <v>0.531428571428571</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="K36">
-        <v>0.0252979460234058</v>
+        <v>0.0152245168624479</v>
       </c>
       <c r="L36">
-        <v>0.0158116883116883</v>
+        <v>0.0067547707785843</v>
       </c>
       <c r="M36">
-        <v>0.0356506714260318</v>
+        <v>0.023659853545585</v>
       </c>
       <c r="N36">
-        <v>0.316224325292572</v>
+        <v>0.189831881077904</v>
       </c>
       <c r="O36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q36">
         <v>1795267.373</v>
@@ -3110,16 +3119,16 @@
         <v>5538804.99</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3139,37 +3148,37 @@
         <v>41</v>
       </c>
       <c r="F37">
-        <v>0.8383896620640811</v>
+        <v>0.626945647235741</v>
       </c>
       <c r="G37">
-        <v>0.106741573033708</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="H37">
-        <v>0.747191011235955</v>
+        <v>0.735955056179775</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>0.067</v>
+        <v>0.0633</v>
       </c>
       <c r="K37">
-        <v>-0.0002389980856278</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>-0.0009292627160495</v>
+        <v>-0.0006671760837262</v>
       </c>
       <c r="M37">
-        <v>0.0002177831246961</v>
+        <v>0.000500041870874</v>
       </c>
       <c r="N37">
-        <v>-0.356713560638621</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q37">
         <v>1795267.373</v>
@@ -3178,19 +3187,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3210,37 +3219,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.9512456969322201</v>
+        <v>0.938406007942248</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.567415730337079</v>
+        <v>0.556179775280899</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.235</v>
+        <v>0.21</v>
       </c>
       <c r="K38">
-        <v>-0.0030488958157227</v>
+        <v>-0.0028690120969256</v>
       </c>
       <c r="L38">
-        <v>-0.007905310685871501</v>
+        <v>-0.0058501924498717</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>-1.29740247477563</v>
+        <v>-1.36619623663125</v>
       </c>
       <c r="O38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Q38">
         <v>1795267.373</v>
@@ -3249,19 +3258,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W38" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3278,40 +3287,40 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>0.546296193762046</v>
+        <v>0.368958681462601</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.51123595505618</v>
+        <v>0.49438202247191</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.032</v>
+        <v>0.0315</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>3.57387475538161E-05</v>
       </c>
       <c r="L39">
-        <v>-0.0007390422607455</v>
+        <v>-0.0004087646196573</v>
       </c>
       <c r="M39">
-        <v>0.0005035417566823</v>
+        <v>0.0007397872034566</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.113456341440686</v>
       </c>
       <c r="O39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q39">
         <v>1795267.373</v>
@@ -3320,19 +3329,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3352,37 +3361,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.943147842823962</v>
+        <v>0.791765361677492</v>
       </c>
       <c r="G40">
         <v>0.0056179775280898</v>
       </c>
       <c r="H40">
-        <v>0.949438202247191</v>
+        <v>0.943820224719101</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>7.765</v>
+        <v>7.56</v>
       </c>
       <c r="K40">
-        <v>-0.152704853273871</v>
+        <v>-0.0807243624032304</v>
       </c>
       <c r="L40">
-        <v>-0.350284313098614</v>
+        <v>-0.272221426209711</v>
       </c>
       <c r="M40">
-        <v>0.0005200553075776</v>
+        <v>0.0801517657463449</v>
       </c>
       <c r="N40">
-        <v>-1.96657892174979</v>
+        <v>-1.0677825714713</v>
       </c>
       <c r="O40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q40">
         <v>1795267.373</v>
@@ -3391,19 +3400,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3411,49 +3420,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.59675202974633</v>
+        <v>0.0010243263934169</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.0152671755725191</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.557251908396947</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>0.306</v>
+        <v>0.37</v>
       </c>
       <c r="K41">
-        <v>0.0500891884081902</v>
+        <v>-0.0128463508122309</v>
       </c>
       <c r="L41">
-        <v>-0.0990146970404497</v>
+        <v>-0.0200058128770004</v>
       </c>
       <c r="M41">
-        <v>0.0610301422639647</v>
+        <v>-0.0065953009269293</v>
       </c>
       <c r="N41">
-        <v>16.36901581967</v>
+        <v>-3.47198670600835</v>
       </c>
       <c r="O41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q41">
         <v>1795267.373</v>
@@ -3462,16 +3471,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V41" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="W41" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3479,49 +3491,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.40324797025367</v>
+        <v>0.998169085548025</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.793969849246231</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>95</v>
+        <v>10.45</v>
       </c>
       <c r="K42">
-        <v>-1.31462214530042</v>
+        <v>0.0321952887537993</v>
       </c>
       <c r="L42">
-        <v>-8.545752320255611</v>
+        <v>0.0153254931898354</v>
       </c>
       <c r="M42">
-        <v>3.13233152899036</v>
+        <v>0.0521303896105621</v>
       </c>
       <c r="N42">
-        <v>-1.38381278452676</v>
+        <v>0.308088887596166</v>
       </c>
       <c r="O42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="Q42">
         <v>1795267.373</v>
@@ -3530,16 +3542,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V42" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="W42" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3547,49 +3562,49 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.59675202974633</v>
+        <v>0.08694080028098369</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.07981220657276999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0.173708920187793</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>4.469</v>
+        <v>0.012</v>
       </c>
       <c r="K43">
-        <v>0.151188247698353</v>
+        <v>9.98314504373179E-05</v>
       </c>
       <c r="L43">
-        <v>-2.05345631781026</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.859951976243309</v>
+        <v>0.000250498494273</v>
       </c>
       <c r="N43">
-        <v>3.38304425371118</v>
+        <v>0.831928753644316</v>
       </c>
       <c r="O43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q43">
         <v>1795267.373</v>
@@ -3598,16 +3613,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V43" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="W43" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3615,49 +3633,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.295752518497458</v>
+        <v>0.971357436338171</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.033175355450237</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.625592417061611</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>0.3615</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>-0.0073834491471888</v>
+        <v>-1.81708124144226</v>
       </c>
       <c r="L44">
-        <v>-0.028692689911866</v>
+        <v>-4.68972071908929</v>
       </c>
       <c r="M44">
-        <v>0.0108996748755324</v>
+        <v>-0.100855098994173</v>
       </c>
       <c r="N44">
-        <v>-2.04244789687106</v>
+        <v>-2.42277498858968</v>
       </c>
       <c r="O44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q44">
         <v>1795267.373</v>
@@ -3666,16 +3684,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S44" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V44" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="W44" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3683,49 +3704,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>0.428445211206309</v>
+        <v>0.299685089817228</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.742718446601942</v>
       </c>
       <c r="H45">
-        <v>0.8</v>
+        <v>0.354368932038835</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J45">
-        <v>94.5</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
-        <v>-0.1400125</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>-1.20614536627855</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>1.00929173275085</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>-0.148161375661375</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q45">
         <v>1795267.373</v>
@@ -3734,16 +3755,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V45" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="W45" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3751,49 +3775,49 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F46">
-        <v>0.639742606431872</v>
+        <v>0.624077621985802</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.319587628865979</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.6030927835051551</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>4.7545</v>
+        <v>0.0605</v>
       </c>
       <c r="K46">
-        <v>0.0913761324041812</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>-0.335494525349052</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>0.259233076220749</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>1.92188731526304</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q46">
         <v>1795267.373</v>
@@ -3802,16 +3826,19 @@
         <v>5538804.99</v>
       </c>
       <c r="S46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V46" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="W46" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3819,10 +3846,10 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -3831,37 +3858,37 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.014269531785181</v>
+        <v>0.999755113593971</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.5120772946859899</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.3845</v>
+        <v>7.98</v>
       </c>
       <c r="K47">
-        <v>-0.0144562875751503</v>
+        <v>0.0163058035714311</v>
       </c>
       <c r="L47">
-        <v>-0.0232232947421115</v>
+        <v>0.0088950727850388</v>
       </c>
       <c r="M47">
-        <v>-0.00512728150784</v>
+        <v>0.0235276192476313</v>
       </c>
       <c r="N47">
-        <v>-3.75976269834858</v>
+        <v>0.204333378088109</v>
       </c>
       <c r="O47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q47">
         <v>1795267.373</v>
@@ -3870,16 +3897,16 @@
         <v>5538804.99</v>
       </c>
       <c r="S47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V47" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3887,49 +3914,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.559227085565669</v>
+        <v>0.856191507382673</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.112676056338028</v>
       </c>
       <c r="H48">
-        <v>0.8</v>
+        <v>0.723004694835681</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J48">
-        <v>95</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="K48">
-        <v>0.0864621824480372</v>
+        <v>-0.0003572476525821</v>
       </c>
       <c r="L48">
-        <v>-0.529483589086274</v>
+        <v>-0.0009940232240665001</v>
       </c>
       <c r="M48">
-        <v>0.864724783236862</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0.09101282362951291</v>
+        <v>-0.544584836253292</v>
       </c>
       <c r="O48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q48">
         <v>1795267.373</v>
@@ -3938,66 +3965,69 @@
         <v>5538804.99</v>
       </c>
       <c r="S48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="W48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.190537240804647</v>
+        <v>0.948698547095685</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.497652582159624</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>5.155</v>
+        <v>0.21</v>
       </c>
       <c r="K49">
-        <v>-0.0816201117318435</v>
+        <v>-0.0025025693730729</v>
       </c>
       <c r="L49">
-        <v>-0.216585801009501</v>
+        <v>-0.0042826831154298</v>
       </c>
       <c r="M49">
-        <v>0.0608433583726239</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>-1.5833193352443</v>
+        <v>-1.19169970146332</v>
       </c>
       <c r="O49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q49">
         <v>1795267.373</v>
@@ -4006,16 +4036,773 @@
         <v>5538804.99</v>
       </c>
       <c r="S49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V49" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="W49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>0.176822290609635</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0.464788732394366</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.031</v>
+      </c>
+      <c r="K50">
+        <v>0.000167776757005</v>
+      </c>
+      <c r="L50">
+        <v>-0.0002156413375462</v>
+      </c>
+      <c r="M50">
+        <v>0.0006648544288511</v>
+      </c>
+      <c r="N50">
+        <v>0.54121534517759</v>
+      </c>
+      <c r="O50" t="s">
+        <v>44</v>
+      </c>
+      <c r="P50" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q50">
+        <v>1795267.373</v>
+      </c>
+      <c r="R50">
+        <v>5538804.99</v>
+      </c>
+      <c r="S50" t="s">
+        <v>59</v>
+      </c>
+      <c r="T50" t="s">
+        <v>60</v>
+      </c>
+      <c r="U50" t="s">
+        <v>61</v>
+      </c>
+      <c r="V50" t="s">
+        <v>62</v>
+      </c>
+      <c r="W50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>0.696040639476521</v>
+      </c>
+      <c r="G51">
+        <v>0.0046948356807511</v>
+      </c>
+      <c r="H51">
+        <v>0.938967136150235</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>7.46</v>
+      </c>
+      <c r="K51">
+        <v>-0.0370595121951219</v>
+      </c>
+      <c r="L51">
+        <v>-0.161491332564482</v>
+      </c>
+      <c r="M51">
+        <v>0.07038985806686431</v>
+      </c>
+      <c r="N51">
+        <v>-0.496776302883672</v>
+      </c>
+      <c r="O51" t="s">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q51">
+        <v>1795267.373</v>
+      </c>
+      <c r="R51">
+        <v>5538804.99</v>
+      </c>
+      <c r="S51" t="s">
+        <v>59</v>
+      </c>
+      <c r="T51" t="s">
+        <v>60</v>
+      </c>
+      <c r="U51" t="s">
+        <v>61</v>
+      </c>
+      <c r="V51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.337</v>
+      </c>
+      <c r="K52">
+        <v>-0.0015530060797485</v>
+      </c>
+      <c r="L52">
+        <v>-0.0990146970404497</v>
+      </c>
+      <c r="M52">
+        <v>0.0628675467230331</v>
+      </c>
+      <c r="N52">
+        <v>-0.460832664613826</v>
+      </c>
+      <c r="O52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q52">
+        <v>1795267.373</v>
+      </c>
+      <c r="R52">
+        <v>5538804.99</v>
+      </c>
+      <c r="S52" t="s">
+        <v>59</v>
+      </c>
+      <c r="T52" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" t="s">
+        <v>61</v>
+      </c>
+      <c r="V52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>92.31</v>
+      </c>
+      <c r="K53">
+        <v>-1.90500272640523</v>
+      </c>
+      <c r="L53">
+        <v>-8.545752320255611</v>
+      </c>
+      <c r="M53">
+        <v>0.959057275640223</v>
+      </c>
+      <c r="N53">
+        <v>-2.06370136107164</v>
+      </c>
+      <c r="O53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P53" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q53">
+        <v>1795267.373</v>
+      </c>
+      <c r="R53">
+        <v>5538804.99</v>
+      </c>
+      <c r="S53" t="s">
+        <v>59</v>
+      </c>
+      <c r="T53" t="s">
+        <v>60</v>
+      </c>
+      <c r="U53" t="s">
+        <v>61</v>
+      </c>
+      <c r="V53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>5.04</v>
+      </c>
+      <c r="K54">
+        <v>0.086958891446484</v>
+      </c>
+      <c r="L54">
+        <v>-2.05345631781026</v>
+      </c>
+      <c r="M54">
+        <v>1.29585956926977</v>
+      </c>
+      <c r="N54">
+        <v>1.72537483028738</v>
+      </c>
+      <c r="O54" t="s">
+        <v>44</v>
+      </c>
+      <c r="P54" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <v>1795267.373</v>
+      </c>
+      <c r="R54">
+        <v>5538804.99</v>
+      </c>
+      <c r="S54" t="s">
+        <v>59</v>
+      </c>
+      <c r="T54" t="s">
+        <v>60</v>
+      </c>
+      <c r="U54" t="s">
+        <v>61</v>
+      </c>
+      <c r="V54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>0.295752518497458</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.3455</v>
+      </c>
+      <c r="K55">
+        <v>-0.0073834491471888</v>
+      </c>
+      <c r="L55">
+        <v>-0.028692689911866</v>
+      </c>
+      <c r="M55">
+        <v>0.0130938669192771</v>
+      </c>
+      <c r="N55">
+        <v>-2.13703303826017</v>
+      </c>
+      <c r="O55" t="s">
+        <v>44</v>
+      </c>
+      <c r="P55" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q55">
+        <v>1795267.373</v>
+      </c>
+      <c r="R55">
+        <v>5538804.99</v>
+      </c>
+      <c r="S55" t="s">
+        <v>59</v>
+      </c>
+      <c r="T55" t="s">
+        <v>60</v>
+      </c>
+      <c r="U55" t="s">
+        <v>61</v>
+      </c>
+      <c r="V55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>0.183616194020314</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>94</v>
+      </c>
+      <c r="K56">
+        <v>-0.524368811881188</v>
+      </c>
+      <c r="L56">
+        <v>-1.27319429140348</v>
+      </c>
+      <c r="M56">
+        <v>0.845719371323109</v>
+      </c>
+      <c r="N56">
+        <v>-0.557839161575731</v>
+      </c>
+      <c r="O56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P56" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q56">
+        <v>1795267.373</v>
+      </c>
+      <c r="R56">
+        <v>5538804.99</v>
+      </c>
+      <c r="S56" t="s">
+        <v>59</v>
+      </c>
+      <c r="T56" t="s">
+        <v>60</v>
+      </c>
+      <c r="U56" t="s">
+        <v>61</v>
+      </c>
+      <c r="V56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>5.07</v>
+      </c>
+      <c r="K57">
+        <v>-0.0186688214070956</v>
+      </c>
+      <c r="L57">
+        <v>-0.428031557364049</v>
+      </c>
+      <c r="M57">
+        <v>0.149196394019595</v>
+      </c>
+      <c r="N57">
+        <v>-0.368221329528513</v>
+      </c>
+      <c r="O57" t="s">
+        <v>44</v>
+      </c>
+      <c r="P57" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q57">
+        <v>1795267.373</v>
+      </c>
+      <c r="R57">
+        <v>5538804.99</v>
+      </c>
+      <c r="S57" t="s">
+        <v>59</v>
+      </c>
+      <c r="T57" t="s">
+        <v>60</v>
+      </c>
+      <c r="U57" t="s">
+        <v>61</v>
+      </c>
+      <c r="V57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.011410751835744</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.37</v>
+      </c>
+      <c r="K58">
+        <v>-0.0132584894613583</v>
+      </c>
+      <c r="L58">
+        <v>-0.0212643420255995</v>
+      </c>
+      <c r="M58">
+        <v>-0.0047634840398325</v>
+      </c>
+      <c r="N58">
+        <v>-3.58337553009684</v>
+      </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q58">
+        <v>1795267.373</v>
+      </c>
+      <c r="R58">
+        <v>5538804.99</v>
+      </c>
+      <c r="S58" t="s">
+        <v>59</v>
+      </c>
+      <c r="T58" t="s">
+        <v>60</v>
+      </c>
+      <c r="U58" t="s">
+        <v>61</v>
+      </c>
+      <c r="V58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.199225928102166</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>95</v>
+      </c>
+      <c r="K59">
+        <v>-0.398962315674495</v>
+      </c>
+      <c r="L59">
+        <v>-0.945988756474045</v>
+      </c>
+      <c r="M59">
+        <v>0.315612450811769</v>
+      </c>
+      <c r="N59">
+        <v>-0.419960332288942</v>
+      </c>
+      <c r="O59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P59" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q59">
+        <v>1795267.373</v>
+      </c>
+      <c r="R59">
+        <v>5538804.99</v>
+      </c>
+      <c r="S59" t="s">
+        <v>59</v>
+      </c>
+      <c r="T59" t="s">
+        <v>60</v>
+      </c>
+      <c r="U59" t="s">
+        <v>61</v>
+      </c>
+      <c r="V59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.214240209748998</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.1</v>
+      </c>
+      <c r="K60">
+        <v>-0.061723700887199</v>
+      </c>
+      <c r="L60">
+        <v>-0.163731193089349</v>
+      </c>
+      <c r="M60">
+        <v>0.0591006998789604</v>
+      </c>
+      <c r="N60">
+        <v>-1.21026864484704</v>
+      </c>
+      <c r="O60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q60">
+        <v>1795267.373</v>
+      </c>
+      <c r="R60">
+        <v>5538804.99</v>
+      </c>
+      <c r="S60" t="s">
+        <v>59</v>
+      </c>
+      <c r="T60" t="s">
+        <v>60</v>
+      </c>
+      <c r="U60" t="s">
+        <v>61</v>
+      </c>
+      <c r="V60" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
